--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H2">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J2">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.00363851519737</v>
+        <v>9.979453666666666</v>
       </c>
       <c r="N2">
-        <v>9.00363851519737</v>
+        <v>29.938361</v>
       </c>
       <c r="O2">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813892</v>
       </c>
       <c r="P2">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813893</v>
       </c>
       <c r="Q2">
-        <v>644.8878806762355</v>
+        <v>863.067980799204</v>
       </c>
       <c r="R2">
-        <v>644.8878806762355</v>
+        <v>7767.611827192837</v>
       </c>
       <c r="S2">
-        <v>0.005344196667800862</v>
+        <v>0.006153239775369731</v>
       </c>
       <c r="T2">
-        <v>0.005344196667800862</v>
+        <v>0.006153239775369732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H3">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I3">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J3">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.58499526177519</v>
+        <v>3.644801</v>
       </c>
       <c r="N3">
-        <v>3.58499526177519</v>
+        <v>10.934403</v>
       </c>
       <c r="O3">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="P3">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="Q3">
-        <v>256.7761902810986</v>
+        <v>315.218762926092</v>
       </c>
       <c r="R3">
-        <v>256.7761902810986</v>
+        <v>2836.968866334828</v>
       </c>
       <c r="S3">
-        <v>0.002127908589368869</v>
+        <v>0.002247350930784825</v>
       </c>
       <c r="T3">
-        <v>0.002127908589368869</v>
+        <v>0.002247350930784826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H4">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I4">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J4">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.107961618579</v>
+        <v>25.01072433333333</v>
       </c>
       <c r="N4">
-        <v>24.107961618579</v>
+        <v>75.032173</v>
       </c>
       <c r="O4">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="P4">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="Q4">
-        <v>1726.738834459819</v>
+        <v>2163.039788520372</v>
       </c>
       <c r="R4">
-        <v>1726.738834459819</v>
+        <v>19467.35809668335</v>
       </c>
       <c r="S4">
-        <v>0.01430951364073691</v>
+        <v>0.01542138366679534</v>
       </c>
       <c r="T4">
-        <v>0.01430951364073691</v>
+        <v>0.01542138366679535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H5">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I5">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J5">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.3928342873483</v>
+        <v>33.18778166666667</v>
       </c>
       <c r="N5">
-        <v>31.3928342873483</v>
+        <v>99.563345</v>
       </c>
       <c r="O5">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="P5">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="Q5">
-        <v>2248.519677663282</v>
+        <v>2870.22843804858</v>
       </c>
       <c r="R5">
-        <v>2248.519677663282</v>
+        <v>25832.05594243722</v>
       </c>
       <c r="S5">
-        <v>0.01863352022719381</v>
+        <v>0.02046328236281402</v>
       </c>
       <c r="T5">
-        <v>0.01863352022719381</v>
+        <v>0.02046328236281402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H6">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I6">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J6">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>102.480295023433</v>
+        <v>104.074323</v>
       </c>
       <c r="N6">
-        <v>102.480295023433</v>
+        <v>312.222969</v>
       </c>
       <c r="O6">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253981</v>
       </c>
       <c r="P6">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253982</v>
       </c>
       <c r="Q6">
-        <v>7340.176991466915</v>
+        <v>9000.814954898917</v>
       </c>
       <c r="R6">
-        <v>7340.176991466915</v>
+        <v>81007.33459409027</v>
       </c>
       <c r="S6">
-        <v>0.06082816966219288</v>
+        <v>0.06417127482813205</v>
       </c>
       <c r="T6">
-        <v>0.06082816966219288</v>
+        <v>0.06417127482813208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.6252523452291</v>
+        <v>86.484492</v>
       </c>
       <c r="H7">
-        <v>71.6252523452291</v>
+        <v>259.453476</v>
       </c>
       <c r="I7">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="J7">
-        <v>0.1058613987222859</v>
+        <v>0.1133842074223504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.78032976515719</v>
+        <v>7.991808333333334</v>
       </c>
       <c r="N7">
-        <v>7.78032976515719</v>
+        <v>23.975425</v>
       </c>
       <c r="O7">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="P7">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="Q7">
-        <v>557.2680827584808</v>
+        <v>691.1674838697</v>
       </c>
       <c r="R7">
-        <v>557.2680827584808</v>
+        <v>6220.507354827301</v>
       </c>
       <c r="S7">
-        <v>0.004618089934992626</v>
+        <v>0.004927675858454437</v>
       </c>
       <c r="T7">
-        <v>0.004618089934992626</v>
+        <v>0.004927675858454439</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H8">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J8">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.00363851519737</v>
+        <v>9.979453666666666</v>
       </c>
       <c r="N8">
-        <v>9.00363851519737</v>
+        <v>29.938361</v>
       </c>
       <c r="O8">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813892</v>
       </c>
       <c r="P8">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813893</v>
       </c>
       <c r="Q8">
-        <v>1407.663157248615</v>
+        <v>1575.297580575315</v>
       </c>
       <c r="R8">
-        <v>1407.663157248615</v>
+        <v>14177.67822517783</v>
       </c>
       <c r="S8">
-        <v>0.01166532815978117</v>
+        <v>0.0112310779063589</v>
       </c>
       <c r="T8">
-        <v>0.01166532815978117</v>
+        <v>0.01123107790635891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H9">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J9">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.58499526177519</v>
+        <v>3.644801</v>
       </c>
       <c r="N9">
-        <v>3.58499526177519</v>
+        <v>10.934403</v>
       </c>
       <c r="O9">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="P9">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="Q9">
-        <v>560.4918212113679</v>
+        <v>575.3467463010237</v>
       </c>
       <c r="R9">
-        <v>560.4918212113679</v>
+        <v>5178.120716709213</v>
       </c>
       <c r="S9">
-        <v>0.004644805109543146</v>
+        <v>0.004101932365386485</v>
       </c>
       <c r="T9">
-        <v>0.004644805109543146</v>
+        <v>0.004101932365386486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H10">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I10">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J10">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.107961618579</v>
+        <v>25.01072433333333</v>
       </c>
       <c r="N10">
-        <v>24.107961618579</v>
+        <v>75.032173</v>
       </c>
       <c r="O10">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="P10">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="Q10">
-        <v>3769.130591988614</v>
+        <v>3948.045138216098</v>
       </c>
       <c r="R10">
-        <v>3769.130591988614</v>
+        <v>35532.40624394488</v>
       </c>
       <c r="S10">
-        <v>0.03123484834152835</v>
+        <v>0.02814757228848964</v>
       </c>
       <c r="T10">
-        <v>0.03123484834152835</v>
+        <v>0.02814757228848964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H11">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I11">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J11">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.3928342873483</v>
+        <v>33.18778166666667</v>
       </c>
       <c r="N11">
-        <v>31.3928342873483</v>
+        <v>99.563345</v>
       </c>
       <c r="O11">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="P11">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="Q11">
-        <v>4908.075346796903</v>
+        <v>5238.827085172944</v>
       </c>
       <c r="R11">
-        <v>4908.075346796903</v>
+        <v>47149.4437665565</v>
       </c>
       <c r="S11">
-        <v>0.04067330259976796</v>
+        <v>0.0373501971037322</v>
       </c>
       <c r="T11">
-        <v>0.04067330259976796</v>
+        <v>0.03735019710373221</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H12">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I12">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J12">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>102.480295023433</v>
+        <v>104.074323</v>
       </c>
       <c r="N12">
-        <v>102.480295023433</v>
+        <v>312.222969</v>
       </c>
       <c r="O12">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253981</v>
       </c>
       <c r="P12">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253982</v>
       </c>
       <c r="Q12">
-        <v>16022.15986403281</v>
+        <v>16428.55758422251</v>
       </c>
       <c r="R12">
-        <v>16022.15986403281</v>
+        <v>147857.0182580026</v>
       </c>
       <c r="S12">
-        <v>0.1327759071337317</v>
+        <v>0.1171273366966776</v>
       </c>
       <c r="T12">
-        <v>0.1327759071337317</v>
+        <v>0.1171273366966776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>156.343810879635</v>
+        <v>157.8540903333333</v>
       </c>
       <c r="H13">
-        <v>156.343810879635</v>
+        <v>473.562271</v>
       </c>
       <c r="I13">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="J13">
-        <v>0.2310745715982548</v>
+        <v>0.206952258224759</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.78032976515719</v>
+        <v>7.991808333333334</v>
       </c>
       <c r="N13">
-        <v>7.78032976515719</v>
+        <v>23.975425</v>
       </c>
       <c r="O13">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="P13">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="Q13">
-        <v>1216.406405384931</v>
+        <v>1261.539634576686</v>
       </c>
       <c r="R13">
-        <v>1216.406405384931</v>
+        <v>11353.85671119018</v>
       </c>
       <c r="S13">
-        <v>0.01008038025390252</v>
+        <v>0.008994141864114234</v>
       </c>
       <c r="T13">
-        <v>0.01008038025390252</v>
+        <v>0.008994141864114237</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>105.826997092114</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H14">
-        <v>105.826997092114</v>
+        <v>321.360122</v>
       </c>
       <c r="I14">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J14">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.00363851519737</v>
+        <v>9.979453666666666</v>
       </c>
       <c r="N14">
-        <v>9.00363851519737</v>
+        <v>29.938361</v>
       </c>
       <c r="O14">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813892</v>
       </c>
       <c r="P14">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813893</v>
       </c>
       <c r="Q14">
-        <v>952.8280269662376</v>
+        <v>1068.999482604449</v>
       </c>
       <c r="R14">
-        <v>952.8280269662376</v>
+        <v>9620.995343440041</v>
       </c>
       <c r="S14">
-        <v>0.007896101817513788</v>
+        <v>0.007621427607730602</v>
       </c>
       <c r="T14">
-        <v>0.007896101817513788</v>
+        <v>0.007621427607730605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>105.826997092114</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H15">
-        <v>105.826997092114</v>
+        <v>321.360122</v>
       </c>
       <c r="I15">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J15">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.58499526177519</v>
+        <v>3.644801</v>
       </c>
       <c r="N15">
-        <v>3.58499526177519</v>
+        <v>10.934403</v>
       </c>
       <c r="O15">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="P15">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="Q15">
-        <v>379.3892831431255</v>
+        <v>390.4312313419073</v>
       </c>
       <c r="R15">
-        <v>379.3892831431255</v>
+        <v>3513.881082077166</v>
       </c>
       <c r="S15">
-        <v>0.00314400534345096</v>
+        <v>0.002783577928606456</v>
       </c>
       <c r="T15">
-        <v>0.00314400534345096</v>
+        <v>0.002783577928606458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>105.826997092114</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H16">
-        <v>105.826997092114</v>
+        <v>321.360122</v>
       </c>
       <c r="I16">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J16">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.107961618579</v>
+        <v>25.01072433333333</v>
       </c>
       <c r="N16">
-        <v>24.107961618579</v>
+        <v>75.032173</v>
       </c>
       <c r="O16">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="P16">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="Q16">
-        <v>2551.273184106156</v>
+        <v>2679.149807689456</v>
       </c>
       <c r="R16">
-        <v>2551.273184106156</v>
+        <v>24112.3482692051</v>
       </c>
       <c r="S16">
-        <v>0.0211424436056273</v>
+        <v>0.01910098801902411</v>
       </c>
       <c r="T16">
-        <v>0.0211424436056273</v>
+        <v>0.01910098801902411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>105.826997092114</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H17">
-        <v>105.826997092114</v>
+        <v>321.360122</v>
       </c>
       <c r="I17">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J17">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.3928342873483</v>
+        <v>33.18778166666667</v>
       </c>
       <c r="N17">
-        <v>31.3928342873483</v>
+        <v>99.563345</v>
       </c>
       <c r="O17">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="P17">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="Q17">
-        <v>3322.209382840425</v>
+        <v>3555.076521769788</v>
       </c>
       <c r="R17">
-        <v>3322.209382840425</v>
+        <v>31995.68869592809</v>
       </c>
       <c r="S17">
-        <v>0.02753120479624301</v>
+        <v>0.0253459040827588</v>
       </c>
       <c r="T17">
-        <v>0.02753120479624301</v>
+        <v>0.0253459040827588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>105.826997092114</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H18">
-        <v>105.826997092114</v>
+        <v>321.360122</v>
       </c>
       <c r="I18">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J18">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>102.480295023433</v>
+        <v>104.074323</v>
       </c>
       <c r="N18">
-        <v>102.480295023433</v>
+        <v>312.222969</v>
       </c>
       <c r="O18">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253981</v>
       </c>
       <c r="P18">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253982</v>
       </c>
       <c r="Q18">
-        <v>10845.18188344383</v>
+        <v>11148.4457121158</v>
       </c>
       <c r="R18">
-        <v>10845.18188344383</v>
+        <v>100336.0114090422</v>
       </c>
       <c r="S18">
-        <v>0.08987420390412466</v>
+        <v>0.07948279986684027</v>
       </c>
       <c r="T18">
-        <v>0.08987420390412466</v>
+        <v>0.0794827998668403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>105.826997092114</v>
+        <v>107.1200406666667</v>
       </c>
       <c r="H19">
-        <v>105.826997092114</v>
+        <v>321.360122</v>
       </c>
       <c r="I19">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="J19">
-        <v>0.1564112316247455</v>
+        <v>0.1404381367013169</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.78032976515719</v>
+        <v>7.991808333333334</v>
       </c>
       <c r="N19">
-        <v>7.78032976515719</v>
+        <v>23.975425</v>
       </c>
       <c r="O19">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="P19">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="Q19">
-        <v>823.368935432978</v>
+        <v>856.0828336668723</v>
       </c>
       <c r="R19">
-        <v>823.368935432978</v>
+        <v>7704.74550300185</v>
       </c>
       <c r="S19">
-        <v>0.006823272157785824</v>
+        <v>0.006103439196356624</v>
       </c>
       <c r="T19">
-        <v>0.006823272157785824</v>
+        <v>0.006103439196356626</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>103.868583664288</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H20">
-        <v>103.868583664288</v>
+        <v>312.609107</v>
       </c>
       <c r="I20">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J20">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.00363851519737</v>
+        <v>9.979453666666666</v>
       </c>
       <c r="N20">
-        <v>9.00363851519737</v>
+        <v>29.938361</v>
       </c>
       <c r="O20">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813892</v>
       </c>
       <c r="P20">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813893</v>
       </c>
       <c r="Q20">
-        <v>935.1951803987837</v>
+        <v>1039.889366361514</v>
       </c>
       <c r="R20">
-        <v>935.1951803987837</v>
+        <v>9359.004297253627</v>
       </c>
       <c r="S20">
-        <v>0.007749978122692887</v>
+        <v>0.007413887148442799</v>
       </c>
       <c r="T20">
-        <v>0.007749978122692887</v>
+        <v>0.007413887148442801</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>103.868583664288</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H21">
-        <v>103.868583664288</v>
+        <v>312.609107</v>
       </c>
       <c r="I21">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J21">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.58499526177519</v>
+        <v>3.644801</v>
       </c>
       <c r="N21">
-        <v>3.58499526177519</v>
+        <v>10.934403</v>
       </c>
       <c r="O21">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="P21">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="Q21">
-        <v>372.3683802837724</v>
+        <v>379.7993286009023</v>
       </c>
       <c r="R21">
-        <v>372.3683802837724</v>
+        <v>3418.193957408121</v>
       </c>
       <c r="S21">
-        <v>0.003085823003868824</v>
+        <v>0.002707777819821011</v>
       </c>
       <c r="T21">
-        <v>0.003085823003868824</v>
+        <v>0.002707777819821012</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>103.868583664288</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H22">
-        <v>103.868583664288</v>
+        <v>312.609107</v>
       </c>
       <c r="I22">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J22">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.107961618579</v>
+        <v>25.01072433333333</v>
       </c>
       <c r="N22">
-        <v>24.107961618579</v>
+        <v>75.032173</v>
       </c>
       <c r="O22">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="P22">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="Q22">
-        <v>2504.059828354817</v>
+        <v>2606.193399755501</v>
       </c>
       <c r="R22">
-        <v>2504.059828354817</v>
+        <v>23455.74059779951</v>
       </c>
       <c r="S22">
-        <v>0.02075118573578267</v>
+        <v>0.01858084559553667</v>
       </c>
       <c r="T22">
-        <v>0.02075118573578267</v>
+        <v>0.01858084559553667</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>103.868583664288</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H23">
-        <v>103.868583664288</v>
+        <v>312.609107</v>
       </c>
       <c r="I23">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J23">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.3928342873483</v>
+        <v>33.18778166666667</v>
       </c>
       <c r="N23">
-        <v>31.3928342873483</v>
+        <v>99.563345</v>
       </c>
       <c r="O23">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="P23">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="Q23">
-        <v>3260.729234634566</v>
+        <v>3458.267596709213</v>
       </c>
       <c r="R23">
-        <v>3260.729234634566</v>
+        <v>31124.40837038291</v>
       </c>
       <c r="S23">
-        <v>0.02702171777838631</v>
+        <v>0.02465570523220949</v>
       </c>
       <c r="T23">
-        <v>0.02702171777838631</v>
+        <v>0.0246557052322095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>103.868583664288</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H24">
-        <v>103.868583664288</v>
+        <v>312.609107</v>
       </c>
       <c r="I24">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J24">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>102.480295023433</v>
+        <v>104.074323</v>
       </c>
       <c r="N24">
-        <v>102.480295023433</v>
+        <v>312.222969</v>
       </c>
       <c r="O24">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253981</v>
       </c>
       <c r="P24">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253982</v>
       </c>
       <c r="Q24">
-        <v>10644.48309758237</v>
+        <v>10844.86039155319</v>
       </c>
       <c r="R24">
-        <v>10644.48309758237</v>
+        <v>97603.74352397869</v>
       </c>
       <c r="S24">
-        <v>0.08821100970437044</v>
+        <v>0.07731838951764107</v>
       </c>
       <c r="T24">
-        <v>0.08821100970437044</v>
+        <v>0.0773183895176411</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>103.868583664288</v>
+        <v>104.2030356666667</v>
       </c>
       <c r="H25">
-        <v>103.868583664288</v>
+        <v>312.609107</v>
       </c>
       <c r="I25">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="J25">
-        <v>0.1535167163810589</v>
+        <v>0.1366138406648433</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.78032976515719</v>
+        <v>7.991808333333334</v>
       </c>
       <c r="N25">
-        <v>7.78032976515719</v>
+        <v>23.975425</v>
       </c>
       <c r="O25">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="P25">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="Q25">
-        <v>808.1318331479798</v>
+        <v>832.7706887994973</v>
       </c>
       <c r="R25">
-        <v>808.1318331479798</v>
+        <v>7494.936199195476</v>
       </c>
       <c r="S25">
-        <v>0.006697002035957762</v>
+        <v>0.005937235351192212</v>
       </c>
       <c r="T25">
-        <v>0.006697002035957762</v>
+        <v>0.005937235351192213</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.2138542608639</v>
+        <v>36.59512433333333</v>
       </c>
       <c r="H26">
-        <v>36.2138542608639</v>
+        <v>109.785373</v>
       </c>
       <c r="I26">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663938</v>
       </c>
       <c r="J26">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663939</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.00363851519737</v>
+        <v>9.979453666666666</v>
       </c>
       <c r="N26">
-        <v>9.00363851519737</v>
+        <v>29.938361</v>
       </c>
       <c r="O26">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813892</v>
       </c>
       <c r="P26">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813893</v>
       </c>
       <c r="Q26">
-        <v>326.0564530068585</v>
+        <v>365.1993477104058</v>
       </c>
       <c r="R26">
-        <v>326.0564530068585</v>
+        <v>3286.794129393653</v>
       </c>
       <c r="S26">
-        <v>0.002702035286888955</v>
+        <v>0.002603687313471961</v>
       </c>
       <c r="T26">
-        <v>0.002702035286888955</v>
+        <v>0.002603687313471962</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.2138542608639</v>
+        <v>36.59512433333333</v>
       </c>
       <c r="H27">
-        <v>36.2138542608639</v>
+        <v>109.785373</v>
       </c>
       <c r="I27">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663938</v>
       </c>
       <c r="J27">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663939</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.58499526177519</v>
+        <v>3.644801</v>
       </c>
       <c r="N27">
-        <v>3.58499526177519</v>
+        <v>10.934403</v>
       </c>
       <c r="O27">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="P27">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="Q27">
-        <v>129.8264959358144</v>
+        <v>133.3819457652577</v>
       </c>
       <c r="R27">
-        <v>129.8264959358144</v>
+        <v>1200.437511887319</v>
       </c>
       <c r="S27">
-        <v>0.001075874346165254</v>
+        <v>0.0009509460578516558</v>
       </c>
       <c r="T27">
-        <v>0.001075874346165254</v>
+        <v>0.000950946057851656</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.2138542608639</v>
+        <v>36.59512433333333</v>
       </c>
       <c r="H28">
-        <v>36.2138542608639</v>
+        <v>109.785373</v>
       </c>
       <c r="I28">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663938</v>
       </c>
       <c r="J28">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663939</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.107961618579</v>
+        <v>25.01072433333333</v>
       </c>
       <c r="N28">
-        <v>24.107961618579</v>
+        <v>75.032173</v>
       </c>
       <c r="O28">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="P28">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="Q28">
-        <v>873.0422085817205</v>
+        <v>915.2705666450587</v>
       </c>
       <c r="R28">
-        <v>873.0422085817205</v>
+        <v>8237.435099805529</v>
       </c>
       <c r="S28">
-        <v>0.007234915404301644</v>
+        <v>0.006525417905887816</v>
       </c>
       <c r="T28">
-        <v>0.007234915404301644</v>
+        <v>0.006525417905887817</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.2138542608639</v>
+        <v>36.59512433333333</v>
       </c>
       <c r="H29">
-        <v>36.2138542608639</v>
+        <v>109.785373</v>
       </c>
       <c r="I29">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663938</v>
       </c>
       <c r="J29">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663939</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.3928342873483</v>
+        <v>33.18778166666667</v>
       </c>
       <c r="N29">
-        <v>31.3928342873483</v>
+        <v>99.563345</v>
       </c>
       <c r="O29">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="P29">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="Q29">
-        <v>1136.855525717483</v>
+        <v>1214.510996439187</v>
       </c>
       <c r="R29">
-        <v>1136.855525717483</v>
+        <v>10930.59896795268</v>
       </c>
       <c r="S29">
-        <v>0.009421140781773505</v>
+        <v>0.008658851373437981</v>
       </c>
       <c r="T29">
-        <v>0.009421140781773505</v>
+        <v>0.008658851373437981</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.2138542608639</v>
+        <v>36.59512433333333</v>
       </c>
       <c r="H30">
-        <v>36.2138542608639</v>
+        <v>109.785373</v>
       </c>
       <c r="I30">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663938</v>
       </c>
       <c r="J30">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663939</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>102.480295023433</v>
+        <v>104.074323</v>
       </c>
       <c r="N30">
-        <v>102.480295023433</v>
+        <v>312.222969</v>
       </c>
       <c r="O30">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253981</v>
       </c>
       <c r="P30">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253982</v>
       </c>
       <c r="Q30">
-        <v>3711.206468588939</v>
+        <v>3808.612790092493</v>
       </c>
       <c r="R30">
-        <v>3711.206468588939</v>
+        <v>34277.51511083244</v>
       </c>
       <c r="S30">
-        <v>0.03075483016079711</v>
+        <v>0.02715348991081541</v>
       </c>
       <c r="T30">
-        <v>0.03075483016079711</v>
+        <v>0.02715348991081542</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.2138542608639</v>
+        <v>36.59512433333333</v>
       </c>
       <c r="H31">
-        <v>36.2138542608639</v>
+        <v>109.785373</v>
       </c>
       <c r="I31">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663938</v>
       </c>
       <c r="J31">
-        <v>0.05352371041852844</v>
+        <v>0.04797749367663939</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.78032976515719</v>
+        <v>7.991808333333334</v>
       </c>
       <c r="N31">
-        <v>7.78032976515719</v>
+        <v>23.975425</v>
       </c>
       <c r="O31">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="P31">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="Q31">
-        <v>281.7557282168639</v>
+        <v>292.4612196065028</v>
       </c>
       <c r="R31">
-        <v>281.7557282168639</v>
+        <v>2632.150976458525</v>
       </c>
       <c r="S31">
-        <v>0.002334914438601975</v>
+        <v>0.002085101115174558</v>
       </c>
       <c r="T31">
-        <v>0.002334914438601975</v>
+        <v>0.002085101115174559</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>202.716117073023</v>
+        <v>270.499283</v>
       </c>
       <c r="H32">
-        <v>202.716117073023</v>
+        <v>811.497849</v>
       </c>
       <c r="I32">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="J32">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.00363851519737</v>
+        <v>9.979453666666666</v>
       </c>
       <c r="N32">
-        <v>9.00363851519737</v>
+        <v>29.938361</v>
       </c>
       <c r="O32">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813892</v>
       </c>
       <c r="P32">
-        <v>0.05048295915511838</v>
+        <v>0.05426893140813893</v>
       </c>
       <c r="Q32">
-        <v>1825.182639329929</v>
+        <v>2699.435061565054</v>
       </c>
       <c r="R32">
-        <v>1825.182639329929</v>
+        <v>24294.91555408549</v>
       </c>
       <c r="S32">
-        <v>0.0151253191004407</v>
+        <v>0.01924561165676493</v>
       </c>
       <c r="T32">
-        <v>0.0151253191004407</v>
+        <v>0.01924561165676493</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>202.716117073023</v>
+        <v>270.499283</v>
       </c>
       <c r="H33">
-        <v>202.716117073023</v>
+        <v>811.497849</v>
       </c>
       <c r="I33">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="J33">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.58499526177519</v>
+        <v>3.644801</v>
       </c>
       <c r="N33">
-        <v>3.58499526177519</v>
+        <v>10.934403</v>
       </c>
       <c r="O33">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="P33">
-        <v>0.02010089244098474</v>
+        <v>0.01982066975529985</v>
       </c>
       <c r="Q33">
-        <v>726.7363191922523</v>
+        <v>985.9160571776829</v>
       </c>
       <c r="R33">
-        <v>726.7363191922523</v>
+        <v>8873.244514599146</v>
       </c>
       <c r="S33">
-        <v>0.006022476048587681</v>
+        <v>0.007029084652849413</v>
       </c>
       <c r="T33">
-        <v>0.006022476048587681</v>
+        <v>0.007029084652849415</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>202.716117073023</v>
+        <v>270.499283</v>
       </c>
       <c r="H34">
-        <v>202.716117073023</v>
+        <v>811.497849</v>
       </c>
       <c r="I34">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="J34">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.107961618579</v>
+        <v>25.01072433333333</v>
       </c>
       <c r="N34">
-        <v>24.107961618579</v>
+        <v>75.032173</v>
       </c>
       <c r="O34">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="P34">
-        <v>0.1351721573061406</v>
+        <v>0.136009978967807</v>
       </c>
       <c r="Q34">
-        <v>4887.072369863806</v>
+        <v>6765.38299947732</v>
       </c>
       <c r="R34">
-        <v>4887.072369863806</v>
+        <v>60888.44699529588</v>
       </c>
       <c r="S34">
-        <v>0.04049925057816374</v>
+        <v>0.04823377149207343</v>
       </c>
       <c r="T34">
-        <v>0.04049925057816374</v>
+        <v>0.04823377149207343</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>202.716117073023</v>
+        <v>270.499283</v>
       </c>
       <c r="H35">
-        <v>202.716117073023</v>
+        <v>811.497849</v>
       </c>
       <c r="I35">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="J35">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.3928342873483</v>
+        <v>33.18778166666667</v>
       </c>
       <c r="N35">
-        <v>31.3928342873483</v>
+        <v>99.563345</v>
       </c>
       <c r="O35">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="P35">
-        <v>0.176018080736648</v>
+        <v>0.180477359484371</v>
       </c>
       <c r="Q35">
-        <v>6363.833470648109</v>
+        <v>8977.271145193878</v>
       </c>
       <c r="R35">
-        <v>6363.833470648109</v>
+        <v>80795.4403067449</v>
       </c>
       <c r="S35">
-        <v>0.05273719455328337</v>
+        <v>0.06400341932941847</v>
       </c>
       <c r="T35">
-        <v>0.05273719455328337</v>
+        <v>0.06400341932941848</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>202.716117073023</v>
+        <v>270.499283</v>
       </c>
       <c r="H36">
-        <v>202.716117073023</v>
+        <v>811.497849</v>
       </c>
       <c r="I36">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="J36">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>102.480295023433</v>
+        <v>104.074323</v>
       </c>
       <c r="N36">
-        <v>102.480295023433</v>
+        <v>312.222969</v>
       </c>
       <c r="O36">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253981</v>
       </c>
       <c r="P36">
-        <v>0.5746019833137471</v>
+        <v>0.5659630762253982</v>
       </c>
       <c r="Q36">
-        <v>20774.40748364818</v>
+        <v>28152.02975021041</v>
       </c>
       <c r="R36">
-        <v>20774.40748364818</v>
+        <v>253368.2677518937</v>
       </c>
       <c r="S36">
-        <v>0.1721578627485303</v>
+        <v>0.2007097854052917</v>
       </c>
       <c r="T36">
-        <v>0.1721578627485303</v>
+        <v>0.2007097854052918</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>202.716117073023</v>
+        <v>270.499283</v>
       </c>
       <c r="H37">
-        <v>202.716117073023</v>
+        <v>811.497849</v>
       </c>
       <c r="I37">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="J37">
-        <v>0.2996123712551263</v>
+        <v>0.3546340633100911</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.78032976515719</v>
+        <v>7.991808333333334</v>
       </c>
       <c r="N37">
-        <v>7.78032976515719</v>
+        <v>23.975425</v>
       </c>
       <c r="O37">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="P37">
-        <v>0.04362392704736127</v>
+        <v>0.04345998415898517</v>
       </c>
       <c r="Q37">
-        <v>1577.198239540331</v>
+        <v>2161.778424040092</v>
       </c>
       <c r="R37">
-        <v>1577.198239540331</v>
+        <v>19456.00581636083</v>
       </c>
       <c r="S37">
-        <v>0.01307026822612055</v>
+        <v>0.0154123907736931</v>
       </c>
       <c r="T37">
-        <v>0.01307026822612055</v>
+        <v>0.0154123907736931</v>
       </c>
     </row>
   </sheetData>
